--- a/Linajes_RSI_DOP_V2/DataLineage_slv_maz_supply_sap_dop_do_mast.xlsx
+++ b/Linajes_RSI_DOP_V2/DataLineage_slv_maz_supply_sap_dop_do_mast.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/bpaezper_emeal_nttdata_com/Documents/Documents/GitHub/RSI-1/Linajes_RSI_DOP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/jramiroj_emeal_nttdata_com/Documents/Desktop/Proyectos/1. AB-inBev/GIT-Interno/RSI/Linajes_RSI_DOP_V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="305" documentId="8_{64F8E747-6600-410C-BAF5-AC72983E4E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33443D3E-E7FA-4648-8ABE-40EBB9AA2337}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ECF1D286-4AF2-4BA9-9C35-C211CBDBC033}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{ECF1D286-4AF2-4BA9-9C35-C211CBDBC033}"/>
   </bookViews>
   <sheets>
     <sheet name="Lineage MAST" sheetId="1" r:id="rId1"/>
@@ -756,10 +756,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1061,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BAA8B6-83B3-474C-A18A-0647FF18FC4A}">
   <dimension ref="A1:DR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6978,38 +6974,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ad84067-1209-43f0-a16f-521bc68c1170">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="552c3589-79d5-48f0-ae47-bdc4c962823d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="552c3589-79d5-48f0-ae47-bdc4c962823d">
-      <UserInfo>
-        <DisplayName>Luis Alberto Venensuelo Barrera</DisplayName>
-        <AccountId>168</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>David Vazquez Ocampo</DisplayName>
-        <AccountId>170</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E08BC8B767A8C1419AFA3B6A18BA7724" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4c02ced6231b0efa3af0c09c3710c750">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ad84067-1209-43f0-a16f-521bc68c1170" xmlns:ns3="552c3589-79d5-48f0-ae47-bdc4c962823d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49962bc04fdcab5ba86746962680b4f9" ns2:_="" ns3:_="">
     <xsd:import namespace="3ad84067-1209-43f0-a16f-521bc68c1170"/>
@@ -7232,6 +7196,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ad84067-1209-43f0-a16f-521bc68c1170">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="552c3589-79d5-48f0-ae47-bdc4c962823d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="552c3589-79d5-48f0-ae47-bdc4c962823d">
+      <UserInfo>
+        <DisplayName>Luis Alberto Venensuelo Barrera</DisplayName>
+        <AccountId>168</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>David Vazquez Ocampo</DisplayName>
+        <AccountId>170</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AB751C6-346A-4E5B-9E22-1BDF57F1E004}">
   <ds:schemaRefs>
@@ -7241,25 +7237,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91103430-7D80-4807-B839-DAE12F761828}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ad84067-1209-43f0-a16f-521bc68c1170"/>
-    <ds:schemaRef ds:uri="552c3589-79d5-48f0-ae47-bdc4c962823d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55C296C-2132-44DE-9423-67D384FAC3A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE1EB2E1-02FE-44BB-A3B5-116A70AAAD73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7278,6 +7255,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55C296C-2132-44DE-9423-67D384FAC3A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91103430-7D80-4807-B839-DAE12F761828}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ad84067-1209-43f0-a16f-521bc68c1170"/>
+    <ds:schemaRef ds:uri="552c3589-79d5-48f0-ae47-bdc4c962823d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{3048dc87-43f0-4100-9acb-ae1971c79395}" enabled="0" method="" siteId="{3048dc87-43f0-4100-9acb-ae1971c79395}" removed="1"/>
